--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\india\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\Aug_2024_930\AutomationTraining\CreatioTestNGFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4389D483-B519-4107-B68A-F62C9C3D07D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D77CB2-AF54-4A80-AA7F-81FDD61BAE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32070" yWindow="4005" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="verifyLoginFeature" sheetId="1" r:id="rId1"/>
+    <sheet name="verifySignUpFeature" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -33,104 +34,32 @@
     <t>Password</t>
   </si>
   <si>
-    <t>SecurityKey</t>
-  </si>
-  <si>
-    <t>User1</t>
-  </si>
-  <si>
-    <t>Pass1</t>
-  </si>
-  <si>
-    <t>SecKey1</t>
-  </si>
-  <si>
-    <t>User2</t>
-  </si>
-  <si>
-    <t>Pass2</t>
-  </si>
-  <si>
-    <t>SecKey2</t>
-  </si>
-  <si>
-    <t>User3</t>
-  </si>
-  <si>
-    <t>Pass3</t>
-  </si>
-  <si>
-    <t>SecKey3</t>
-  </si>
-  <si>
-    <t>User4</t>
-  </si>
-  <si>
-    <t>Pass4</t>
-  </si>
-  <si>
-    <t>SecKey4</t>
-  </si>
-  <si>
-    <t>User5</t>
-  </si>
-  <si>
-    <t>Pass5</t>
-  </si>
-  <si>
-    <t>SecKey5</t>
-  </si>
-  <si>
-    <t>User6</t>
-  </si>
-  <si>
-    <t>Pass6</t>
-  </si>
-  <si>
-    <t>SecKey6</t>
-  </si>
-  <si>
-    <t>User7</t>
-  </si>
-  <si>
-    <t>Pass7</t>
-  </si>
-  <si>
-    <t>SecKey7</t>
-  </si>
-  <si>
-    <t>User8</t>
-  </si>
-  <si>
-    <t>Pass8</t>
-  </si>
-  <si>
-    <t>SecKey8</t>
-  </si>
-  <si>
-    <t>User9</t>
-  </si>
-  <si>
-    <t>Pass9</t>
-  </si>
-  <si>
-    <t>SecKey9</t>
-  </si>
-  <si>
-    <t>User10</t>
-  </si>
-  <si>
-    <t>Pass10</t>
-  </si>
-  <si>
-    <t>SecKey10</t>
+    <t>bharathtechacademy4@gmail.com</t>
+  </si>
+  <si>
+    <t>BharathTechAcademy@123</t>
+  </si>
+  <si>
+    <t>ravijadav@gmail.com</t>
+  </si>
+  <si>
+    <t>Ravi123</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>bharathtech@test.com</t>
+  </si>
+  <si>
+    <t>Bharath@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +77,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,14 +107,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,142 +396,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{35288795-758F-42C0-80A3-549498ED3E69}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{824FEE12-52BE-4528-9759-4DA420D95C92}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{DCE6A186-662B-4486-B909-A0FA2819B26A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C079F6E8-C5CB-48E5-8FF7-54EA06947F45}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7A22157F-C5CF-429B-950E-113AED151967}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{35D74478-EB2A-4FE8-8F43-534018E8E703}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
 </file>